--- a/medicine/Enfance/Alain_Serres/Alain_Serres.xlsx
+++ b/medicine/Enfance/Alain_Serres/Alain_Serres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Serres, né le 21 octobre 1956 à Biarritz (Pyrénées-Atlantiques), est un auteur de littérature de jeunesse, fondateur et directeur des éditions Rue du monde.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Serres est né en 1956 à Biarritz. D'abord enseignant en maternelle, il devient ensuite auteur, et publie son premier album en 1982 aux éditions La Farandole[1]. En 1996, Alain Serres crée les éditions Rue du monde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Serres est né en 1956 à Biarritz. D'abord enseignant en maternelle, il devient ensuite auteur, et publie son premier album en 1982 aux éditions La Farandole. En 1996, Alain Serres crée les éditions Rue du monde.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robinson et l’arbre de vie, illustrations de Julie Bernard, Rue du Monde, 2019
 C'est ainsi que nous habitons le monde, texte d'Alain Serres, illustrations de Nathalie Novi, Rue du Monde, 2018
@@ -586,7 +602,7 @@
 J’ai vu quelque chose qui bougeait, illustrations de Silvia Bonanni, Rue du monde, 2008
 Je serai les yeux de la Terre, illustrations de Zaü, photographies de l’agence Altitude, préface de Yann Arthus-Bertrand, Rue du monde, 2007
 Ma maison bleue, illustrations d’Edmée Cannard, Rue du monde, 2007
-Maintenant[3], illustrations d’Olivier Tallec, Rue du monde, 2007
+Maintenant, illustrations d’Olivier Tallec, Rue du monde, 2007
 Et Picasso peint Guernica, Rue du monde, 2007
 Encore un coquelicot, illustrations de Martine Mellinette, Cheyne éditeur, 2007
 Une cuisine tout en chocolat, illustrations de Nathalie Novi, Rue du monde, 2006
@@ -620,7 +636,7 @@
 Un petit air de famille, illustrations de Martin Jarrie, Rue du monde, 1998
 Maman, je veux être top model, illustrations de Véronique Deiss, Rue du monde, 1998
 Un grand-père transformidable, illustrations d'Hervé Blondon, Albin Michel, 1997
-Histoires de chaussettes, illustrations d'Anne Tonnac, Gallimard Jeunesse, 1997[4]
+Histoires de chaussettes, illustrations d'Anne Tonnac, Gallimard Jeunesse, 1997
 Prière de ne pas entrer dans la chambre des parents, illustrations de Klaas Verplancke, Castermann, 1996
 Il y a le monde, illustrations de Martine Mellinette, Cheyne éditeur, 1996
 Le grand livre des droits de l'enfant, illustrations de Pef, Rue du monde, 1996
@@ -629,11 +645,11 @@
 Le bestiaire des mots, illustrations de Martine Mellinette, Cheyne éditeur, 1991
 Puni-Cagibi, illustrations de Claude K. Dubois, L'école des loisirs, 1990
 Une Île dans ma baignoire, ill. Mireille Vautier, Nathan, 1990
-C'est un secret, illustrations d'Anne Tonnac, Nathan, 1990[4]
-Le Grand Retour, illustrations d'Anne Tonnac, Nathan, 1990[4]
-Petit Menteur, , illustrations d'Anne Tonnac, Nathan, 1990[4]
-Pourquoi, pourquoi, illustrations d'Anne Tonnac, Nathan, 1990[4]
-Le petit humain, illustrations d'Anne Tonnac, Gallimard jeunesse, 1986[4]
+C'est un secret, illustrations d'Anne Tonnac, Nathan, 1990
+Le Grand Retour, illustrations d'Anne Tonnac, Nathan, 1990
+Petit Menteur, , illustrations d'Anne Tonnac, Nathan, 1990
+Pourquoi, pourquoi, illustrations d'Anne Tonnac, Nathan, 1990
+Le petit humain, illustrations d'Anne Tonnac, Gallimard jeunesse, 1986
 N'écoute pas celui qui répète, illustrations de Martine Mellinette, Cheyne éditeur, 1986
 Du commerce de la souris, illustrations de Claude Lapointe, Gallimard jeunesse, 1984
 Pain, beurre et chocolat, illustrations de Selçuk Demirel, Éditions La Farandole, 1982</t>
@@ -664,9 +680,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013</t>
         </is>
       </c>
     </row>
